--- a/Financials/Yearly/VEDL_YR_FIN.xlsx
+++ b/Financials/Yearly/VEDL_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B403BE-7BB7-4ED8-85A5-B97703F1BC8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDL" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12591100</v>
+        <v>13212400</v>
       </c>
       <c r="E8" s="3">
-        <v>9883100</v>
+        <v>10370800</v>
       </c>
       <c r="F8" s="3">
-        <v>8812200</v>
+        <v>9247100</v>
       </c>
       <c r="G8" s="3">
-        <v>10108700</v>
+        <v>10607600</v>
       </c>
       <c r="H8" s="3">
-        <v>9993800</v>
+        <v>10487000</v>
       </c>
       <c r="I8" s="3">
-        <v>9953300</v>
+        <v>10444500</v>
       </c>
       <c r="J8" s="3">
-        <v>8242000</v>
+        <v>8648800</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9038400</v>
+        <v>9484400</v>
       </c>
       <c r="E9" s="3">
-        <v>7358400</v>
+        <v>7721500</v>
       </c>
       <c r="F9" s="3">
-        <v>12067900</v>
+        <v>12663400</v>
       </c>
       <c r="G9" s="3">
-        <v>13724400</v>
+        <v>14401700</v>
       </c>
       <c r="H9" s="3">
-        <v>7687900</v>
+        <v>8067200</v>
       </c>
       <c r="I9" s="3">
-        <v>7670800</v>
+        <v>8049300</v>
       </c>
       <c r="J9" s="3">
-        <v>6008000</v>
+        <v>6304500</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3552600</v>
+        <v>3728000</v>
       </c>
       <c r="E10" s="3">
-        <v>2524700</v>
+        <v>2649300</v>
       </c>
       <c r="F10" s="3">
-        <v>-3255700</v>
+        <v>-3416400</v>
       </c>
       <c r="G10" s="3">
-        <v>-3615700</v>
+        <v>-3794100</v>
       </c>
       <c r="H10" s="3">
-        <v>2306000</v>
+        <v>2419800</v>
       </c>
       <c r="I10" s="3">
-        <v>2282500</v>
+        <v>2395200</v>
       </c>
       <c r="J10" s="3">
-        <v>2234100</v>
+        <v>2344300</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,12 +889,12 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -881,7 +916,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9506200</v>
+        <v>9975300</v>
       </c>
       <c r="E17" s="3">
-        <v>7778300</v>
+        <v>8162100</v>
       </c>
       <c r="F17" s="3">
-        <v>12516600</v>
+        <v>13134200</v>
       </c>
       <c r="G17" s="3">
-        <v>14231900</v>
+        <v>14934200</v>
       </c>
       <c r="H17" s="3">
-        <v>8236500</v>
+        <v>8643000</v>
       </c>
       <c r="I17" s="3">
-        <v>8168700</v>
+        <v>8571800</v>
       </c>
       <c r="J17" s="3">
-        <v>6760300</v>
+        <v>7093900</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3084900</v>
+        <v>3237100</v>
       </c>
       <c r="E18" s="3">
-        <v>2104800</v>
+        <v>2208700</v>
       </c>
       <c r="F18" s="3">
-        <v>-3704400</v>
+        <v>-3887200</v>
       </c>
       <c r="G18" s="3">
-        <v>-4123200</v>
+        <v>-4326600</v>
       </c>
       <c r="H18" s="3">
-        <v>1757300</v>
+        <v>1844100</v>
       </c>
       <c r="I18" s="3">
-        <v>1784700</v>
+        <v>1872700</v>
       </c>
       <c r="J18" s="3">
-        <v>1481700</v>
+        <v>1554800</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-818700</v>
+        <v>-859100</v>
       </c>
       <c r="E20" s="3">
-        <v>536400</v>
+        <v>562900</v>
       </c>
       <c r="F20" s="3">
-        <v>527300</v>
+        <v>553300</v>
       </c>
       <c r="G20" s="3">
-        <v>666300</v>
+        <v>699200</v>
       </c>
       <c r="H20" s="3">
-        <v>443000</v>
+        <v>464900</v>
       </c>
       <c r="I20" s="3">
-        <v>496900</v>
+        <v>521400</v>
       </c>
       <c r="J20" s="3">
-        <v>231300</v>
+        <v>242800</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3296500</v>
+        <v>3461500</v>
       </c>
       <c r="E21" s="3">
-        <v>3487200</v>
+        <v>3661100</v>
       </c>
       <c r="F21" s="3">
-        <v>-2030300</v>
+        <v>-2127900</v>
       </c>
       <c r="G21" s="3">
-        <v>-1928300</v>
+        <v>-2020000</v>
       </c>
       <c r="H21" s="3">
-        <v>3877500</v>
+        <v>4072600</v>
       </c>
       <c r="I21" s="3">
-        <v>3892900</v>
+        <v>4088600</v>
       </c>
       <c r="J21" s="3">
-        <v>2553900</v>
+        <v>2681800</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>704400</v>
+        <v>739200</v>
       </c>
       <c r="E22" s="3">
-        <v>759300</v>
+        <v>796700</v>
       </c>
       <c r="F22" s="3">
-        <v>742000</v>
+        <v>778600</v>
       </c>
       <c r="G22" s="3">
-        <v>835000</v>
+        <v>876200</v>
       </c>
       <c r="H22" s="3">
-        <v>865400</v>
+        <v>908100</v>
       </c>
       <c r="I22" s="3">
-        <v>769500</v>
+        <v>807500</v>
       </c>
       <c r="J22" s="3">
-        <v>484000</v>
+        <v>507900</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1561800</v>
+        <v>1638800</v>
       </c>
       <c r="E23" s="3">
-        <v>1882000</v>
+        <v>1974800</v>
       </c>
       <c r="F23" s="3">
-        <v>-3919100</v>
+        <v>-4112500</v>
       </c>
       <c r="G23" s="3">
-        <v>-4291900</v>
+        <v>-4503700</v>
       </c>
       <c r="H23" s="3">
-        <v>1334900</v>
+        <v>1400800</v>
       </c>
       <c r="I23" s="3">
-        <v>1512000</v>
+        <v>1586600</v>
       </c>
       <c r="J23" s="3">
-        <v>1229000</v>
+        <v>1289700</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>915400</v>
+        <v>960500</v>
       </c>
       <c r="E24" s="3">
-        <v>524000</v>
+        <v>549900</v>
       </c>
       <c r="F24" s="3">
-        <v>-1420200</v>
+        <v>-1490200</v>
       </c>
       <c r="G24" s="3">
-        <v>-1492600</v>
+        <v>-1566300</v>
       </c>
       <c r="H24" s="3">
-        <v>477400</v>
+        <v>501000</v>
       </c>
       <c r="I24" s="3">
-        <v>-103400</v>
+        <v>-108500</v>
       </c>
       <c r="J24" s="3">
-        <v>106200</v>
+        <v>111500</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>646400</v>
+        <v>678300</v>
       </c>
       <c r="E26" s="3">
-        <v>1358000</v>
+        <v>1425000</v>
       </c>
       <c r="F26" s="3">
-        <v>-2499000</v>
+        <v>-2622300</v>
       </c>
       <c r="G26" s="3">
-        <v>-2799300</v>
+        <v>-2937400</v>
       </c>
       <c r="H26" s="3">
-        <v>857500</v>
+        <v>899800</v>
       </c>
       <c r="I26" s="3">
-        <v>1615400</v>
+        <v>1695100</v>
       </c>
       <c r="J26" s="3">
-        <v>1122800</v>
+        <v>1178200</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>188900</v>
+        <v>198200</v>
       </c>
       <c r="E27" s="3">
-        <v>758400</v>
+        <v>795800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1724600</v>
+        <v>-1809700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1768700</v>
+        <v>-1855900</v>
       </c>
       <c r="H27" s="3">
-        <v>213100</v>
+        <v>223600</v>
       </c>
       <c r="I27" s="3">
-        <v>859400</v>
+        <v>901800</v>
       </c>
       <c r="J27" s="3">
-        <v>714000</v>
+        <v>749200</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>818700</v>
+        <v>859100</v>
       </c>
       <c r="E32" s="3">
-        <v>-536400</v>
+        <v>-562900</v>
       </c>
       <c r="F32" s="3">
-        <v>-527300</v>
+        <v>-553300</v>
       </c>
       <c r="G32" s="3">
-        <v>-666300</v>
+        <v>-699200</v>
       </c>
       <c r="H32" s="3">
-        <v>-443000</v>
+        <v>-464900</v>
       </c>
       <c r="I32" s="3">
-        <v>-496900</v>
+        <v>-521400</v>
       </c>
       <c r="J32" s="3">
-        <v>-231300</v>
+        <v>-242800</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>188900</v>
+        <v>198200</v>
       </c>
       <c r="E33" s="3">
-        <v>758400</v>
+        <v>795800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1724600</v>
+        <v>-1809700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1768700</v>
+        <v>-1855900</v>
       </c>
       <c r="H33" s="3">
-        <v>213100</v>
+        <v>223600</v>
       </c>
       <c r="I33" s="3">
-        <v>859400</v>
+        <v>901800</v>
       </c>
       <c r="J33" s="3">
-        <v>714000</v>
+        <v>749200</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>188900</v>
+        <v>198200</v>
       </c>
       <c r="E35" s="3">
-        <v>758400</v>
+        <v>795800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1724600</v>
+        <v>-1809700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1768700</v>
+        <v>-1855900</v>
       </c>
       <c r="H35" s="3">
-        <v>213100</v>
+        <v>223600</v>
       </c>
       <c r="I35" s="3">
-        <v>859400</v>
+        <v>901800</v>
       </c>
       <c r="J35" s="3">
-        <v>714000</v>
+        <v>749200</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>900200</v>
+        <v>944700</v>
       </c>
       <c r="E41" s="3">
-        <v>1948800</v>
+        <v>2044900</v>
       </c>
       <c r="F41" s="3">
-        <v>572700</v>
+        <v>600900</v>
       </c>
       <c r="G41" s="3">
-        <v>773900</v>
+        <v>812000</v>
       </c>
       <c r="H41" s="3">
-        <v>1674600</v>
+        <v>1757200</v>
       </c>
       <c r="I41" s="3">
-        <v>2202000</v>
+        <v>2310700</v>
       </c>
       <c r="J41" s="3">
-        <v>1087800</v>
+        <v>1141500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4035600</v>
+        <v>4234700</v>
       </c>
       <c r="E42" s="3">
-        <v>6620800</v>
+        <v>6947500</v>
       </c>
       <c r="F42" s="3">
-        <v>7517000</v>
+        <v>7888000</v>
       </c>
       <c r="G42" s="3">
-        <v>6186500</v>
+        <v>6491700</v>
       </c>
       <c r="H42" s="3">
-        <v>5642200</v>
+        <v>5920700</v>
       </c>
       <c r="I42" s="3">
-        <v>3655000</v>
+        <v>3835300</v>
       </c>
       <c r="J42" s="3">
-        <v>2130000</v>
+        <v>2235100</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>823100</v>
+        <v>863700</v>
       </c>
       <c r="E43" s="3">
-        <v>626600</v>
+        <v>657500</v>
       </c>
       <c r="F43" s="3">
-        <v>962800</v>
+        <v>1010300</v>
       </c>
       <c r="G43" s="3">
-        <v>1256000</v>
+        <v>1318000</v>
       </c>
       <c r="H43" s="3">
-        <v>1213700</v>
+        <v>1273600</v>
       </c>
       <c r="I43" s="3">
-        <v>2565500</v>
+        <v>2692100</v>
       </c>
       <c r="J43" s="3">
-        <v>1540900</v>
+        <v>1616900</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1652000</v>
+        <v>1733500</v>
       </c>
       <c r="E44" s="3">
-        <v>1340300</v>
+        <v>1406500</v>
       </c>
       <c r="F44" s="3">
-        <v>1119800</v>
+        <v>1175000</v>
       </c>
       <c r="G44" s="3">
-        <v>1208700</v>
+        <v>1268400</v>
       </c>
       <c r="H44" s="3">
-        <v>1278600</v>
+        <v>1341700</v>
       </c>
       <c r="I44" s="3">
-        <v>1320600</v>
+        <v>1385700</v>
       </c>
       <c r="J44" s="3">
-        <v>629900</v>
+        <v>661000</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>395300</v>
+        <v>414800</v>
       </c>
       <c r="E45" s="3">
-        <v>369000</v>
+        <v>387200</v>
       </c>
       <c r="F45" s="3">
-        <v>231400</v>
+        <v>242800</v>
       </c>
       <c r="G45" s="3">
-        <v>247800</v>
+        <v>260000</v>
       </c>
       <c r="H45" s="3">
-        <v>258600</v>
+        <v>271300</v>
       </c>
       <c r="I45" s="3">
-        <v>185300</v>
+        <v>194500</v>
       </c>
       <c r="J45" s="3">
-        <v>93100</v>
+        <v>97700</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7806200</v>
+        <v>8191400</v>
       </c>
       <c r="E46" s="3">
-        <v>10905500</v>
+        <v>11443700</v>
       </c>
       <c r="F46" s="3">
-        <v>10403600</v>
+        <v>10917000</v>
       </c>
       <c r="G46" s="3">
-        <v>9672900</v>
+        <v>10150200</v>
       </c>
       <c r="H46" s="3">
-        <v>10067700</v>
+        <v>10564500</v>
       </c>
       <c r="I46" s="3">
-        <v>9006500</v>
+        <v>9450900</v>
       </c>
       <c r="J46" s="3">
-        <v>5481800</v>
+        <v>5752300</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>884300</v>
+        <v>927900</v>
       </c>
       <c r="E47" s="3">
-        <v>637000</v>
+        <v>668500</v>
       </c>
       <c r="F47" s="3">
-        <v>445400</v>
+        <v>467300</v>
       </c>
       <c r="G47" s="3">
-        <v>442600</v>
+        <v>464500</v>
       </c>
       <c r="H47" s="3">
-        <v>441700</v>
+        <v>463500</v>
       </c>
       <c r="I47" s="3">
-        <v>429900</v>
+        <v>451100</v>
       </c>
       <c r="J47" s="3">
-        <v>564000</v>
+        <v>591800</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14440100</v>
+        <v>15152600</v>
       </c>
       <c r="E48" s="3">
-        <v>13449000</v>
+        <v>14112700</v>
       </c>
       <c r="F48" s="3">
-        <v>13510900</v>
+        <v>14177700</v>
       </c>
       <c r="G48" s="3">
-        <v>18389500</v>
+        <v>19297000</v>
       </c>
       <c r="H48" s="3">
-        <v>23868100</v>
+        <v>25045900</v>
       </c>
       <c r="I48" s="3">
-        <v>48457600</v>
+        <v>50848800</v>
       </c>
       <c r="J48" s="3">
-        <v>5229700</v>
+        <v>5487800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>114400</v>
+        <v>120100</v>
       </c>
       <c r="E49" s="3">
-        <v>87900</v>
+        <v>92200</v>
       </c>
       <c r="F49" s="3">
-        <v>86800</v>
+        <v>91100</v>
       </c>
       <c r="G49" s="3">
-        <v>90900</v>
+        <v>95300</v>
       </c>
       <c r="H49" s="3">
-        <v>96200</v>
+        <v>101000</v>
       </c>
       <c r="I49" s="3">
-        <v>332500</v>
+        <v>348900</v>
       </c>
       <c r="J49" s="3">
-        <v>174400</v>
+        <v>183000</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1068800</v>
+        <v>1121600</v>
       </c>
       <c r="E52" s="3">
-        <v>1362500</v>
+        <v>1429700</v>
       </c>
       <c r="F52" s="3">
-        <v>1311600</v>
+        <v>1376300</v>
       </c>
       <c r="G52" s="3">
-        <v>1192400</v>
+        <v>1251200</v>
       </c>
       <c r="H52" s="3">
-        <v>1105400</v>
+        <v>1159900</v>
       </c>
       <c r="I52" s="3">
-        <v>706800</v>
+        <v>741600</v>
       </c>
       <c r="J52" s="3">
-        <v>165100</v>
+        <v>173200</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24313800</v>
+        <v>25513600</v>
       </c>
       <c r="E54" s="3">
-        <v>26441900</v>
+        <v>27746700</v>
       </c>
       <c r="F54" s="3">
-        <v>25758300</v>
+        <v>27029400</v>
       </c>
       <c r="G54" s="3">
-        <v>29788300</v>
+        <v>31258200</v>
       </c>
       <c r="H54" s="3">
-        <v>35579100</v>
+        <v>37334800</v>
       </c>
       <c r="I54" s="3">
-        <v>33270200</v>
+        <v>34912000</v>
       </c>
       <c r="J54" s="3">
-        <v>11615000</v>
+        <v>12188200</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1162300</v>
+        <v>1219600</v>
       </c>
       <c r="E57" s="3">
-        <v>863200</v>
+        <v>905800</v>
       </c>
       <c r="F57" s="3">
-        <v>876200</v>
+        <v>919400</v>
       </c>
       <c r="G57" s="3">
-        <v>808900</v>
+        <v>848800</v>
       </c>
       <c r="H57" s="3">
-        <v>1157900</v>
+        <v>1215000</v>
       </c>
       <c r="I57" s="3">
-        <v>988600</v>
+        <v>1037400</v>
       </c>
       <c r="J57" s="3">
-        <v>465100</v>
+        <v>488000</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4322800</v>
+        <v>4536100</v>
       </c>
       <c r="E58" s="3">
-        <v>5692900</v>
+        <v>5973800</v>
       </c>
       <c r="F58" s="3">
-        <v>2512500</v>
+        <v>2636500</v>
       </c>
       <c r="G58" s="3">
-        <v>2221800</v>
+        <v>2331400</v>
       </c>
       <c r="H58" s="3">
-        <v>2228600</v>
+        <v>2338600</v>
       </c>
       <c r="I58" s="3">
-        <v>2607700</v>
+        <v>2736400</v>
       </c>
       <c r="J58" s="3">
-        <v>743900</v>
+        <v>780600</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3762900</v>
+        <v>3948600</v>
       </c>
       <c r="E59" s="3">
-        <v>4800100</v>
+        <v>5037000</v>
       </c>
       <c r="F59" s="3">
-        <v>4076600</v>
+        <v>4277800</v>
       </c>
       <c r="G59" s="3">
-        <v>2943200</v>
+        <v>3088500</v>
       </c>
       <c r="H59" s="3">
-        <v>2805900</v>
+        <v>2944400</v>
       </c>
       <c r="I59" s="3">
-        <v>3465400</v>
+        <v>3636400</v>
       </c>
       <c r="J59" s="3">
-        <v>970000</v>
+        <v>1017900</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9248000</v>
+        <v>9704400</v>
       </c>
       <c r="E60" s="3">
-        <v>11356100</v>
+        <v>11916500</v>
       </c>
       <c r="F60" s="3">
-        <v>7465200</v>
+        <v>7833600</v>
       </c>
       <c r="G60" s="3">
-        <v>5973900</v>
+        <v>6268700</v>
       </c>
       <c r="H60" s="3">
-        <v>6192400</v>
+        <v>6497900</v>
       </c>
       <c r="I60" s="3">
-        <v>5842300</v>
+        <v>6130500</v>
       </c>
       <c r="J60" s="3">
-        <v>2179000</v>
+        <v>2286500</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3691500</v>
+        <v>3873700</v>
       </c>
       <c r="E61" s="3">
-        <v>4584000</v>
+        <v>4810200</v>
       </c>
       <c r="F61" s="3">
-        <v>6804300</v>
+        <v>7140100</v>
       </c>
       <c r="G61" s="3">
-        <v>7136000</v>
+        <v>7488100</v>
       </c>
       <c r="H61" s="3">
-        <v>7542800</v>
+        <v>7915000</v>
       </c>
       <c r="I61" s="3">
-        <v>7207500</v>
+        <v>7563100</v>
       </c>
       <c r="J61" s="3">
-        <v>1026500</v>
+        <v>1077100</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>999000</v>
+        <v>1048200</v>
       </c>
       <c r="E62" s="3">
-        <v>665800</v>
+        <v>698700</v>
       </c>
       <c r="F62" s="3">
-        <v>791900</v>
+        <v>831000</v>
       </c>
       <c r="G62" s="3">
-        <v>2504100</v>
+        <v>2627700</v>
       </c>
       <c r="H62" s="3">
-        <v>4448800</v>
+        <v>4668400</v>
       </c>
       <c r="I62" s="3">
-        <v>4096300</v>
+        <v>4298400</v>
       </c>
       <c r="J62" s="3">
-        <v>538600</v>
+        <v>565200</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16106900</v>
+        <v>16901800</v>
       </c>
       <c r="E66" s="3">
-        <v>18497200</v>
+        <v>19410000</v>
       </c>
       <c r="F66" s="3">
-        <v>20092500</v>
+        <v>21084100</v>
       </c>
       <c r="G66" s="3">
-        <v>22056100</v>
+        <v>23144500</v>
       </c>
       <c r="H66" s="3">
-        <v>25939000</v>
+        <v>27219100</v>
       </c>
       <c r="I66" s="3">
-        <v>23891400</v>
+        <v>25070400</v>
       </c>
       <c r="J66" s="3">
-        <v>5476300</v>
+        <v>5746600</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4165400</v>
+        <v>4371000</v>
       </c>
       <c r="E72" s="3">
-        <v>5090200</v>
+        <v>5341400</v>
       </c>
       <c r="F72" s="3">
-        <v>2686900</v>
+        <v>2819400</v>
       </c>
       <c r="G72" s="3">
-        <v>4650100</v>
+        <v>4879500</v>
       </c>
       <c r="H72" s="3">
-        <v>6523900</v>
+        <v>6845800</v>
       </c>
       <c r="I72" s="3">
-        <v>6430500</v>
+        <v>6747800</v>
       </c>
       <c r="J72" s="3">
-        <v>3499000</v>
+        <v>3671700</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8206900</v>
+        <v>8611900</v>
       </c>
       <c r="E76" s="3">
-        <v>7944700</v>
+        <v>8336700</v>
       </c>
       <c r="F76" s="3">
-        <v>5665800</v>
+        <v>5945400</v>
       </c>
       <c r="G76" s="3">
-        <v>7732200</v>
+        <v>8113800</v>
       </c>
       <c r="H76" s="3">
-        <v>9640100</v>
+        <v>10115800</v>
       </c>
       <c r="I76" s="3">
-        <v>9378800</v>
+        <v>9841600</v>
       </c>
       <c r="J76" s="3">
-        <v>6138700</v>
+        <v>6441600</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>188900</v>
+        <v>198200</v>
       </c>
       <c r="E81" s="3">
-        <v>758400</v>
+        <v>795800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1724600</v>
+        <v>-1809700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1768700</v>
+        <v>-1855900</v>
       </c>
       <c r="H81" s="3">
-        <v>213100</v>
+        <v>223600</v>
       </c>
       <c r="I81" s="3">
-        <v>859400</v>
+        <v>901800</v>
       </c>
       <c r="J81" s="3">
-        <v>714000</v>
+        <v>749200</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1031800</v>
+        <v>1082800</v>
       </c>
       <c r="E83" s="3">
-        <v>847200</v>
+        <v>889000</v>
       </c>
       <c r="F83" s="3">
-        <v>1148500</v>
+        <v>1205100</v>
       </c>
       <c r="G83" s="3">
-        <v>1530800</v>
+        <v>1606400</v>
       </c>
       <c r="H83" s="3">
-        <v>1679600</v>
+        <v>1762500</v>
       </c>
       <c r="I83" s="3">
-        <v>1613700</v>
+        <v>1693300</v>
       </c>
       <c r="J83" s="3">
-        <v>842100</v>
+        <v>883700</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4801000</v>
+        <v>5038000</v>
       </c>
       <c r="E89" s="3">
-        <v>2922800</v>
+        <v>3067000</v>
       </c>
       <c r="F89" s="3">
-        <v>1479300</v>
+        <v>1552300</v>
       </c>
       <c r="G89" s="3">
-        <v>1732300</v>
+        <v>1817800</v>
       </c>
       <c r="H89" s="3">
-        <v>774400</v>
+        <v>812600</v>
       </c>
       <c r="I89" s="3">
-        <v>1338200</v>
+        <v>1404200</v>
       </c>
       <c r="J89" s="3">
-        <v>2123000</v>
+        <v>2227800</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1002500</v>
+        <v>-1052000</v>
       </c>
       <c r="E91" s="3">
-        <v>-740700</v>
+        <v>-777200</v>
       </c>
       <c r="F91" s="3">
-        <v>-833300</v>
+        <v>-874400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1429600</v>
+        <v>-1500100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1313400</v>
+        <v>-1378200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1175700</v>
+        <v>-1233700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1395200</v>
+        <v>-1464000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-718700</v>
+        <v>-754100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1101200</v>
+        <v>-1155500</v>
       </c>
       <c r="F94" s="3">
-        <v>-587200</v>
+        <v>-616200</v>
       </c>
       <c r="G94" s="3">
-        <v>-605500</v>
+        <v>-635400</v>
       </c>
       <c r="H94" s="3">
-        <v>-725300</v>
+        <v>-761000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2110800</v>
+        <v>-2214900</v>
       </c>
       <c r="J94" s="3">
-        <v>-6682500</v>
+        <v>-7012200</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1989100</v>
+        <v>-2087200</v>
       </c>
       <c r="E96" s="3">
-        <v>-71500</v>
+        <v>-75000</v>
       </c>
       <c r="F96" s="3">
-        <v>-239200</v>
+        <v>-251000</v>
       </c>
       <c r="G96" s="3">
-        <v>-143000</v>
+        <v>-150100</v>
       </c>
       <c r="H96" s="3">
-        <v>-121100</v>
+        <v>-127000</v>
       </c>
       <c r="I96" s="3">
-        <v>-131700</v>
+        <v>-138200</v>
       </c>
       <c r="J96" s="3">
-        <v>-184400</v>
+        <v>-193500</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4921400</v>
+        <v>-5164300</v>
       </c>
       <c r="E100" s="3">
-        <v>-676900</v>
+        <v>-710300</v>
       </c>
       <c r="F100" s="3">
-        <v>-726400</v>
+        <v>-762200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1191300</v>
+        <v>-1250000</v>
       </c>
       <c r="H100" s="3">
-        <v>-86500</v>
+        <v>-90800</v>
       </c>
       <c r="I100" s="3">
-        <v>25600</v>
+        <v>26800</v>
       </c>
       <c r="J100" s="3">
-        <v>5108300</v>
+        <v>5360400</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="E101" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="F101" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G101" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H101" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="I101" s="3">
-        <v>57000</v>
+        <v>59900</v>
       </c>
       <c r="J101" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-827400</v>
+        <v>-868300</v>
       </c>
       <c r="E102" s="3">
-        <v>1140600</v>
+        <v>1196900</v>
       </c>
       <c r="F102" s="3">
-        <v>168800</v>
+        <v>177100</v>
       </c>
       <c r="G102" s="3">
-        <v>-59800</v>
+        <v>-62700</v>
       </c>
       <c r="H102" s="3">
-        <v>-30900</v>
+        <v>-32400</v>
       </c>
       <c r="I102" s="3">
-        <v>-690000</v>
+        <v>-724000</v>
       </c>
       <c r="J102" s="3">
-        <v>563300</v>
+        <v>591100</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/VEDL_YR_FIN.xlsx
+++ b/Financials/Yearly/VEDL_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B403BE-7BB7-4ED8-85A5-B97703F1BC8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="VEDL" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13212400</v>
+        <v>12762500</v>
       </c>
       <c r="E8" s="3">
-        <v>10370800</v>
+        <v>12770100</v>
       </c>
       <c r="F8" s="3">
-        <v>9247100</v>
+        <v>10033600</v>
       </c>
       <c r="G8" s="3">
-        <v>10607600</v>
+        <v>8978500</v>
       </c>
       <c r="H8" s="3">
-        <v>10487000</v>
+        <v>10299400</v>
       </c>
       <c r="I8" s="3">
-        <v>10444500</v>
+        <v>10182400</v>
       </c>
       <c r="J8" s="3">
+        <v>10141100</v>
+      </c>
+      <c r="K8" s="3">
         <v>8648800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9484400</v>
+        <v>10218800</v>
       </c>
       <c r="E9" s="3">
-        <v>7721500</v>
+        <v>9289100</v>
       </c>
       <c r="F9" s="3">
-        <v>12663400</v>
+        <v>7590900</v>
       </c>
       <c r="G9" s="3">
-        <v>14401700</v>
+        <v>12295600</v>
       </c>
       <c r="H9" s="3">
-        <v>8067200</v>
+        <v>13983400</v>
       </c>
       <c r="I9" s="3">
-        <v>8049300</v>
+        <v>7832900</v>
       </c>
       <c r="J9" s="3">
+        <v>7815500</v>
+      </c>
+      <c r="K9" s="3">
         <v>6304500</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3728000</v>
+        <v>2543800</v>
       </c>
       <c r="E10" s="3">
-        <v>2649300</v>
+        <v>3481000</v>
       </c>
       <c r="F10" s="3">
-        <v>-3416400</v>
+        <v>2442700</v>
       </c>
       <c r="G10" s="3">
-        <v>-3794100</v>
+        <v>-3317100</v>
       </c>
       <c r="H10" s="3">
-        <v>2419800</v>
+        <v>-3683900</v>
       </c>
       <c r="I10" s="3">
-        <v>2395200</v>
+        <v>2349500</v>
       </c>
       <c r="J10" s="3">
+        <v>2325600</v>
+      </c>
+      <c r="K10" s="3">
         <v>2344300</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,20 +868,23 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -914,9 +898,12 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9975300</v>
+        <v>10723700</v>
       </c>
       <c r="E17" s="3">
-        <v>8162100</v>
+        <v>9701700</v>
       </c>
       <c r="F17" s="3">
-        <v>13134200</v>
+        <v>7982800</v>
       </c>
       <c r="G17" s="3">
-        <v>14934200</v>
+        <v>12752700</v>
       </c>
       <c r="H17" s="3">
-        <v>8643000</v>
+        <v>14500400</v>
       </c>
       <c r="I17" s="3">
-        <v>8571800</v>
+        <v>8391900</v>
       </c>
       <c r="J17" s="3">
+        <v>8322800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7093900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3237100</v>
+        <v>2038800</v>
       </c>
       <c r="E18" s="3">
-        <v>2208700</v>
+        <v>3068300</v>
       </c>
       <c r="F18" s="3">
-        <v>-3887200</v>
+        <v>2050800</v>
       </c>
       <c r="G18" s="3">
-        <v>-4326600</v>
+        <v>-3774300</v>
       </c>
       <c r="H18" s="3">
-        <v>1844100</v>
+        <v>-4201000</v>
       </c>
       <c r="I18" s="3">
-        <v>1872700</v>
+        <v>1790500</v>
       </c>
       <c r="J18" s="3">
+        <v>1818300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1554800</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-859100</v>
+        <v>466500</v>
       </c>
       <c r="E20" s="3">
-        <v>562900</v>
+        <v>-754100</v>
       </c>
       <c r="F20" s="3">
-        <v>553300</v>
+        <v>640200</v>
       </c>
       <c r="G20" s="3">
-        <v>699200</v>
+        <v>537200</v>
       </c>
       <c r="H20" s="3">
-        <v>464900</v>
+        <v>678800</v>
       </c>
       <c r="I20" s="3">
-        <v>521400</v>
+        <v>451400</v>
       </c>
       <c r="J20" s="3">
+        <v>506300</v>
+      </c>
+      <c r="K20" s="3">
         <v>242800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3461500</v>
+        <v>3856200</v>
       </c>
       <c r="E21" s="3">
-        <v>3661100</v>
+        <v>3366200</v>
       </c>
       <c r="F21" s="3">
-        <v>-2127900</v>
+        <v>3554800</v>
       </c>
       <c r="G21" s="3">
-        <v>-2020000</v>
+        <v>-2066100</v>
       </c>
       <c r="H21" s="3">
-        <v>4072600</v>
+        <v>-1961300</v>
       </c>
       <c r="I21" s="3">
-        <v>4088600</v>
+        <v>3954400</v>
       </c>
       <c r="J21" s="3">
+        <v>3969900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2681800</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>739200</v>
+        <v>852400</v>
       </c>
       <c r="E22" s="3">
-        <v>796700</v>
+        <v>717700</v>
       </c>
       <c r="F22" s="3">
-        <v>778600</v>
+        <v>773600</v>
       </c>
       <c r="G22" s="3">
-        <v>876200</v>
+        <v>756000</v>
       </c>
       <c r="H22" s="3">
-        <v>908100</v>
+        <v>850800</v>
       </c>
       <c r="I22" s="3">
-        <v>807500</v>
+        <v>881800</v>
       </c>
       <c r="J22" s="3">
+        <v>784100</v>
+      </c>
+      <c r="K22" s="3">
         <v>507900</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1638800</v>
+        <v>1652900</v>
       </c>
       <c r="E23" s="3">
-        <v>1974800</v>
+        <v>1596500</v>
       </c>
       <c r="F23" s="3">
-        <v>-4112500</v>
+        <v>1917500</v>
       </c>
       <c r="G23" s="3">
-        <v>-4503700</v>
+        <v>-3993100</v>
       </c>
       <c r="H23" s="3">
-        <v>1400800</v>
+        <v>-4372900</v>
       </c>
       <c r="I23" s="3">
-        <v>1586600</v>
+        <v>1360100</v>
       </c>
       <c r="J23" s="3">
+        <v>1540600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1289700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>960500</v>
+        <v>582700</v>
       </c>
       <c r="E24" s="3">
-        <v>549900</v>
+        <v>932600</v>
       </c>
       <c r="F24" s="3">
-        <v>-1490200</v>
+        <v>533900</v>
       </c>
       <c r="G24" s="3">
-        <v>-1566300</v>
+        <v>-1447000</v>
       </c>
       <c r="H24" s="3">
-        <v>501000</v>
+        <v>-1520800</v>
       </c>
       <c r="I24" s="3">
-        <v>-108500</v>
+        <v>486400</v>
       </c>
       <c r="J24" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="K24" s="3">
         <v>111500</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>678300</v>
+        <v>1070300</v>
       </c>
       <c r="E26" s="3">
-        <v>1425000</v>
+        <v>663900</v>
       </c>
       <c r="F26" s="3">
-        <v>-2622300</v>
+        <v>1383600</v>
       </c>
       <c r="G26" s="3">
-        <v>-2937400</v>
+        <v>-2546100</v>
       </c>
       <c r="H26" s="3">
-        <v>899800</v>
+        <v>-2852100</v>
       </c>
       <c r="I26" s="3">
-        <v>1695100</v>
+        <v>873700</v>
       </c>
       <c r="J26" s="3">
+        <v>1645900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1178200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>198200</v>
+        <v>698800</v>
       </c>
       <c r="E27" s="3">
-        <v>795800</v>
+        <v>197700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1809700</v>
+        <v>772700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1855900</v>
+        <v>-1757100</v>
       </c>
       <c r="H27" s="3">
-        <v>223600</v>
+        <v>-1802000</v>
       </c>
       <c r="I27" s="3">
-        <v>901800</v>
+        <v>217100</v>
       </c>
       <c r="J27" s="3">
+        <v>875600</v>
+      </c>
+      <c r="K27" s="3">
         <v>749200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>859100</v>
+        <v>-466500</v>
       </c>
       <c r="E32" s="3">
-        <v>-562900</v>
+        <v>754100</v>
       </c>
       <c r="F32" s="3">
-        <v>-553300</v>
+        <v>-640200</v>
       </c>
       <c r="G32" s="3">
-        <v>-699200</v>
+        <v>-537200</v>
       </c>
       <c r="H32" s="3">
-        <v>-464900</v>
+        <v>-678800</v>
       </c>
       <c r="I32" s="3">
-        <v>-521400</v>
+        <v>-451400</v>
       </c>
       <c r="J32" s="3">
+        <v>-506300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-242800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>198200</v>
+        <v>698800</v>
       </c>
       <c r="E33" s="3">
-        <v>795800</v>
+        <v>197700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1809700</v>
+        <v>772700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1855900</v>
+        <v>-1757100</v>
       </c>
       <c r="H33" s="3">
-        <v>223600</v>
+        <v>-1802000</v>
       </c>
       <c r="I33" s="3">
-        <v>901800</v>
+        <v>217100</v>
       </c>
       <c r="J33" s="3">
+        <v>875600</v>
+      </c>
+      <c r="K33" s="3">
         <v>749200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>198200</v>
+        <v>698800</v>
       </c>
       <c r="E35" s="3">
-        <v>795800</v>
+        <v>197700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1809700</v>
+        <v>772700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1855900</v>
+        <v>-1757100</v>
       </c>
       <c r="H35" s="3">
-        <v>223600</v>
+        <v>-1802000</v>
       </c>
       <c r="I35" s="3">
-        <v>901800</v>
+        <v>217100</v>
       </c>
       <c r="J35" s="3">
+        <v>875600</v>
+      </c>
+      <c r="K35" s="3">
         <v>749200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>944700</v>
+        <v>740500</v>
       </c>
       <c r="E41" s="3">
-        <v>2044900</v>
+        <v>917200</v>
       </c>
       <c r="F41" s="3">
-        <v>600900</v>
+        <v>1985600</v>
       </c>
       <c r="G41" s="3">
-        <v>812000</v>
+        <v>583500</v>
       </c>
       <c r="H41" s="3">
-        <v>1757200</v>
+        <v>788500</v>
       </c>
       <c r="I41" s="3">
-        <v>2310700</v>
+        <v>1706200</v>
       </c>
       <c r="J41" s="3">
+        <v>2243600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1141500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4234700</v>
+        <v>4375800</v>
       </c>
       <c r="E42" s="3">
-        <v>6947500</v>
+        <v>4111700</v>
       </c>
       <c r="F42" s="3">
-        <v>7888000</v>
+        <v>6745700</v>
       </c>
       <c r="G42" s="3">
-        <v>6491700</v>
+        <v>7658900</v>
       </c>
       <c r="H42" s="3">
-        <v>5920700</v>
+        <v>6303200</v>
       </c>
       <c r="I42" s="3">
-        <v>3835300</v>
+        <v>5748700</v>
       </c>
       <c r="J42" s="3">
+        <v>3723900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2235100</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>863700</v>
+        <v>1118500</v>
       </c>
       <c r="E43" s="3">
-        <v>657500</v>
+        <v>838600</v>
       </c>
       <c r="F43" s="3">
-        <v>1010300</v>
+        <v>638400</v>
       </c>
       <c r="G43" s="3">
-        <v>1318000</v>
+        <v>980900</v>
       </c>
       <c r="H43" s="3">
-        <v>1273600</v>
+        <v>1279700</v>
       </c>
       <c r="I43" s="3">
-        <v>2692100</v>
+        <v>1236600</v>
       </c>
       <c r="J43" s="3">
+        <v>2613900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1616900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1733500</v>
+        <v>1863200</v>
       </c>
       <c r="E44" s="3">
-        <v>1406500</v>
+        <v>1683200</v>
       </c>
       <c r="F44" s="3">
-        <v>1175000</v>
+        <v>1365600</v>
       </c>
       <c r="G44" s="3">
-        <v>1268400</v>
+        <v>1140900</v>
       </c>
       <c r="H44" s="3">
-        <v>1341700</v>
+        <v>1231500</v>
       </c>
       <c r="I44" s="3">
-        <v>1385700</v>
+        <v>1302700</v>
       </c>
       <c r="J44" s="3">
+        <v>1345500</v>
+      </c>
+      <c r="K44" s="3">
         <v>661000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>414800</v>
+        <v>312700</v>
       </c>
       <c r="E45" s="3">
-        <v>387200</v>
+        <v>402700</v>
       </c>
       <c r="F45" s="3">
-        <v>242800</v>
+        <v>376000</v>
       </c>
       <c r="G45" s="3">
-        <v>260000</v>
+        <v>235800</v>
       </c>
       <c r="H45" s="3">
-        <v>271300</v>
+        <v>252500</v>
       </c>
       <c r="I45" s="3">
-        <v>194500</v>
+        <v>263400</v>
       </c>
       <c r="J45" s="3">
+        <v>188800</v>
+      </c>
+      <c r="K45" s="3">
         <v>97700</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8191400</v>
+        <v>8410600</v>
       </c>
       <c r="E46" s="3">
-        <v>11443700</v>
+        <v>7953500</v>
       </c>
       <c r="F46" s="3">
-        <v>10917000</v>
+        <v>11111300</v>
       </c>
       <c r="G46" s="3">
-        <v>10150200</v>
+        <v>10599900</v>
       </c>
       <c r="H46" s="3">
-        <v>10564500</v>
+        <v>9855400</v>
       </c>
       <c r="I46" s="3">
-        <v>9450900</v>
+        <v>10257700</v>
       </c>
       <c r="J46" s="3">
+        <v>9176400</v>
+      </c>
+      <c r="K46" s="3">
         <v>5752300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>927900</v>
+        <v>1770000</v>
       </c>
       <c r="E47" s="3">
-        <v>668500</v>
+        <v>901000</v>
       </c>
       <c r="F47" s="3">
-        <v>467300</v>
+        <v>649000</v>
       </c>
       <c r="G47" s="3">
-        <v>464500</v>
+        <v>453800</v>
       </c>
       <c r="H47" s="3">
-        <v>463500</v>
+        <v>451000</v>
       </c>
       <c r="I47" s="3">
-        <v>451100</v>
+        <v>450000</v>
       </c>
       <c r="J47" s="3">
+        <v>438000</v>
+      </c>
+      <c r="K47" s="3">
         <v>591800</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15152600</v>
+        <v>15708000</v>
       </c>
       <c r="E48" s="3">
-        <v>14112700</v>
+        <v>14712500</v>
       </c>
       <c r="F48" s="3">
-        <v>14177700</v>
+        <v>13702700</v>
       </c>
       <c r="G48" s="3">
-        <v>19297000</v>
+        <v>13765900</v>
       </c>
       <c r="H48" s="3">
-        <v>25045900</v>
+        <v>18736500</v>
       </c>
       <c r="I48" s="3">
-        <v>50848800</v>
+        <v>24318400</v>
       </c>
       <c r="J48" s="3">
+        <v>49371900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5487800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>120100</v>
+        <v>108300</v>
       </c>
       <c r="E49" s="3">
-        <v>92200</v>
+        <v>116600</v>
       </c>
       <c r="F49" s="3">
-        <v>91100</v>
+        <v>89500</v>
       </c>
       <c r="G49" s="3">
-        <v>95300</v>
+        <v>88500</v>
       </c>
       <c r="H49" s="3">
-        <v>101000</v>
+        <v>92600</v>
       </c>
       <c r="I49" s="3">
-        <v>348900</v>
+        <v>98100</v>
       </c>
       <c r="J49" s="3">
+        <v>338800</v>
+      </c>
+      <c r="K49" s="3">
         <v>183000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1121600</v>
+        <v>1113200</v>
       </c>
       <c r="E52" s="3">
-        <v>1429700</v>
+        <v>1089000</v>
       </c>
       <c r="F52" s="3">
-        <v>1376300</v>
+        <v>1388200</v>
       </c>
       <c r="G52" s="3">
-        <v>1251200</v>
+        <v>1336300</v>
       </c>
       <c r="H52" s="3">
-        <v>1159900</v>
+        <v>1214900</v>
       </c>
       <c r="I52" s="3">
-        <v>741600</v>
+        <v>1126200</v>
       </c>
       <c r="J52" s="3">
+        <v>720100</v>
+      </c>
+      <c r="K52" s="3">
         <v>173200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25513600</v>
+        <v>27110000</v>
       </c>
       <c r="E54" s="3">
-        <v>27746700</v>
+        <v>24772600</v>
       </c>
       <c r="F54" s="3">
-        <v>27029400</v>
+        <v>26940800</v>
       </c>
       <c r="G54" s="3">
-        <v>31258200</v>
+        <v>26244300</v>
       </c>
       <c r="H54" s="3">
-        <v>37334800</v>
+        <v>30350300</v>
       </c>
       <c r="I54" s="3">
-        <v>34912000</v>
+        <v>36250400</v>
       </c>
       <c r="J54" s="3">
+        <v>33897900</v>
+      </c>
+      <c r="K54" s="3">
         <v>12188200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1219600</v>
+        <v>1599900</v>
       </c>
       <c r="E57" s="3">
-        <v>905800</v>
+        <v>1184200</v>
       </c>
       <c r="F57" s="3">
-        <v>919400</v>
+        <v>879500</v>
       </c>
       <c r="G57" s="3">
-        <v>848800</v>
+        <v>892700</v>
       </c>
       <c r="H57" s="3">
-        <v>1215000</v>
+        <v>824100</v>
       </c>
       <c r="I57" s="3">
-        <v>1037400</v>
+        <v>1179700</v>
       </c>
       <c r="J57" s="3">
+        <v>1007300</v>
+      </c>
+      <c r="K57" s="3">
         <v>488000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4536100</v>
+        <v>4423300</v>
       </c>
       <c r="E58" s="3">
-        <v>5973800</v>
+        <v>4404300</v>
       </c>
       <c r="F58" s="3">
-        <v>2636500</v>
+        <v>5800300</v>
       </c>
       <c r="G58" s="3">
-        <v>2331400</v>
+        <v>2559900</v>
       </c>
       <c r="H58" s="3">
-        <v>2338600</v>
+        <v>2263700</v>
       </c>
       <c r="I58" s="3">
-        <v>2736400</v>
+        <v>2270700</v>
       </c>
       <c r="J58" s="3">
+        <v>2656900</v>
+      </c>
+      <c r="K58" s="3">
         <v>780600</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3948600</v>
+        <v>4716800</v>
       </c>
       <c r="E59" s="3">
-        <v>5037000</v>
+        <v>3833900</v>
       </c>
       <c r="F59" s="3">
-        <v>4277800</v>
+        <v>4890700</v>
       </c>
       <c r="G59" s="3">
-        <v>3088500</v>
+        <v>4153500</v>
       </c>
       <c r="H59" s="3">
-        <v>2944400</v>
+        <v>2998800</v>
       </c>
       <c r="I59" s="3">
-        <v>3636400</v>
+        <v>2858800</v>
       </c>
       <c r="J59" s="3">
+        <v>3530800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1017900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9704400</v>
+        <v>10740100</v>
       </c>
       <c r="E60" s="3">
-        <v>11916500</v>
+        <v>9422500</v>
       </c>
       <c r="F60" s="3">
-        <v>7833600</v>
+        <v>11570400</v>
       </c>
       <c r="G60" s="3">
-        <v>6268700</v>
+        <v>7606100</v>
       </c>
       <c r="H60" s="3">
-        <v>6497900</v>
+        <v>6086600</v>
       </c>
       <c r="I60" s="3">
-        <v>6130500</v>
+        <v>6309200</v>
       </c>
       <c r="J60" s="3">
+        <v>5952500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2286500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3873700</v>
+        <v>4874800</v>
       </c>
       <c r="E61" s="3">
-        <v>4810200</v>
+        <v>3761100</v>
       </c>
       <c r="F61" s="3">
-        <v>7140100</v>
+        <v>4670500</v>
       </c>
       <c r="G61" s="3">
-        <v>7488100</v>
+        <v>6932700</v>
       </c>
       <c r="H61" s="3">
-        <v>7915000</v>
+        <v>7270600</v>
       </c>
       <c r="I61" s="3">
-        <v>7563100</v>
+        <v>7685100</v>
       </c>
       <c r="J61" s="3">
+        <v>7343500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1077100</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1048200</v>
+        <v>1218600</v>
       </c>
       <c r="E62" s="3">
-        <v>698700</v>
+        <v>1017800</v>
       </c>
       <c r="F62" s="3">
-        <v>831000</v>
+        <v>678400</v>
       </c>
       <c r="G62" s="3">
-        <v>2627700</v>
+        <v>806900</v>
       </c>
       <c r="H62" s="3">
-        <v>4668400</v>
+        <v>2551400</v>
       </c>
       <c r="I62" s="3">
-        <v>4298400</v>
+        <v>4532800</v>
       </c>
       <c r="J62" s="3">
+        <v>4173600</v>
+      </c>
+      <c r="K62" s="3">
         <v>565200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16901800</v>
+        <v>18948000</v>
       </c>
       <c r="E66" s="3">
-        <v>19410000</v>
+        <v>16410800</v>
       </c>
       <c r="F66" s="3">
-        <v>21084100</v>
+        <v>18846200</v>
       </c>
       <c r="G66" s="3">
-        <v>23144500</v>
+        <v>20471700</v>
       </c>
       <c r="H66" s="3">
-        <v>27219100</v>
+        <v>22472200</v>
       </c>
       <c r="I66" s="3">
-        <v>25070400</v>
+        <v>26428500</v>
       </c>
       <c r="J66" s="3">
+        <v>24342200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5746600</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4371000</v>
+        <v>3950100</v>
       </c>
       <c r="E72" s="3">
-        <v>5341400</v>
+        <v>4244000</v>
       </c>
       <c r="F72" s="3">
-        <v>2819400</v>
+        <v>5186200</v>
       </c>
       <c r="G72" s="3">
-        <v>4879500</v>
+        <v>2737500</v>
       </c>
       <c r="H72" s="3">
-        <v>6845800</v>
+        <v>4737800</v>
       </c>
       <c r="I72" s="3">
-        <v>6747800</v>
+        <v>6647000</v>
       </c>
       <c r="J72" s="3">
+        <v>6551900</v>
+      </c>
+      <c r="K72" s="3">
         <v>3671700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8611900</v>
+        <v>8162000</v>
       </c>
       <c r="E76" s="3">
-        <v>8336700</v>
+        <v>8361700</v>
       </c>
       <c r="F76" s="3">
-        <v>5945400</v>
+        <v>8094600</v>
       </c>
       <c r="G76" s="3">
-        <v>8113800</v>
+        <v>5772700</v>
       </c>
       <c r="H76" s="3">
-        <v>10115800</v>
+        <v>7878100</v>
       </c>
       <c r="I76" s="3">
-        <v>9841600</v>
+        <v>9822000</v>
       </c>
       <c r="J76" s="3">
+        <v>9555800</v>
+      </c>
+      <c r="K76" s="3">
         <v>6441600</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>198200</v>
+        <v>698800</v>
       </c>
       <c r="E81" s="3">
-        <v>795800</v>
+        <v>197700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1809700</v>
+        <v>772700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1855900</v>
+        <v>-1757100</v>
       </c>
       <c r="H81" s="3">
-        <v>223600</v>
+        <v>-1802000</v>
       </c>
       <c r="I81" s="3">
-        <v>901800</v>
+        <v>217100</v>
       </c>
       <c r="J81" s="3">
+        <v>875600</v>
+      </c>
+      <c r="K81" s="3">
         <v>749200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1082800</v>
+        <v>1349900</v>
       </c>
       <c r="E83" s="3">
-        <v>889000</v>
+        <v>1051300</v>
       </c>
       <c r="F83" s="3">
-        <v>1205100</v>
+        <v>863100</v>
       </c>
       <c r="G83" s="3">
-        <v>1606400</v>
+        <v>1170100</v>
       </c>
       <c r="H83" s="3">
-        <v>1762500</v>
+        <v>1559700</v>
       </c>
       <c r="I83" s="3">
-        <v>1693300</v>
+        <v>1711300</v>
       </c>
       <c r="J83" s="3">
+        <v>1644100</v>
+      </c>
+      <c r="K83" s="3">
         <v>883700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5038000</v>
+        <v>2926200</v>
       </c>
       <c r="E89" s="3">
-        <v>3067000</v>
+        <v>4891600</v>
       </c>
       <c r="F89" s="3">
-        <v>1552300</v>
+        <v>2978000</v>
       </c>
       <c r="G89" s="3">
-        <v>1817800</v>
+        <v>1507200</v>
       </c>
       <c r="H89" s="3">
-        <v>812600</v>
+        <v>1765000</v>
       </c>
       <c r="I89" s="3">
-        <v>1404200</v>
+        <v>789000</v>
       </c>
       <c r="J89" s="3">
+        <v>1363400</v>
+      </c>
+      <c r="K89" s="3">
         <v>2227800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1052000</v>
+        <v>-1260100</v>
       </c>
       <c r="E91" s="3">
-        <v>-777200</v>
+        <v>-1025000</v>
       </c>
       <c r="F91" s="3">
-        <v>-874400</v>
+        <v>-772000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1500100</v>
+        <v>-849000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1378200</v>
+        <v>-1456500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1233700</v>
+        <v>-1338100</v>
       </c>
       <c r="J91" s="3">
+        <v>-1197900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-754100</v>
+        <v>-1869400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1155500</v>
+        <v>-732200</v>
       </c>
       <c r="F94" s="3">
-        <v>-616200</v>
+        <v>-1121900</v>
       </c>
       <c r="G94" s="3">
-        <v>-635400</v>
+        <v>-598300</v>
       </c>
       <c r="H94" s="3">
-        <v>-761000</v>
+        <v>-616900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2214900</v>
+        <v>-738900</v>
       </c>
       <c r="J94" s="3">
+        <v>-2150600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7012200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2087200</v>
+        <v>-979900</v>
       </c>
       <c r="E96" s="3">
-        <v>-75000</v>
+        <v>-2026600</v>
       </c>
       <c r="F96" s="3">
-        <v>-251000</v>
+        <v>-72900</v>
       </c>
       <c r="G96" s="3">
-        <v>-150100</v>
+        <v>-243700</v>
       </c>
       <c r="H96" s="3">
-        <v>-127000</v>
+        <v>-145700</v>
       </c>
       <c r="I96" s="3">
-        <v>-138200</v>
+        <v>-123300</v>
       </c>
       <c r="J96" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-193500</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5164300</v>
+        <v>-640800</v>
       </c>
       <c r="E100" s="3">
-        <v>-710300</v>
+        <v>-5014300</v>
       </c>
       <c r="F100" s="3">
-        <v>-762200</v>
+        <v>-689700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1250000</v>
+        <v>-740100</v>
       </c>
       <c r="H100" s="3">
-        <v>-90800</v>
+        <v>-1213700</v>
       </c>
       <c r="I100" s="3">
-        <v>26800</v>
+        <v>-88200</v>
       </c>
       <c r="J100" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K100" s="3">
         <v>5360400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12200</v>
+        <v>-13100</v>
       </c>
       <c r="E101" s="3">
-        <v>-4300</v>
+        <v>11800</v>
       </c>
       <c r="F101" s="3">
-        <v>3200</v>
+        <v>-4200</v>
       </c>
       <c r="G101" s="3">
-        <v>4900</v>
+        <v>3100</v>
       </c>
       <c r="H101" s="3">
-        <v>6800</v>
+        <v>4700</v>
       </c>
       <c r="I101" s="3">
-        <v>59900</v>
+        <v>6600</v>
       </c>
       <c r="J101" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K101" s="3">
         <v>15100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-868300</v>
+        <v>402900</v>
       </c>
       <c r="E102" s="3">
-        <v>1196900</v>
+        <v>-843000</v>
       </c>
       <c r="F102" s="3">
-        <v>177100</v>
+        <v>1162100</v>
       </c>
       <c r="G102" s="3">
-        <v>-62700</v>
+        <v>172000</v>
       </c>
       <c r="H102" s="3">
-        <v>-32400</v>
+        <v>-60900</v>
       </c>
       <c r="I102" s="3">
-        <v>-724000</v>
+        <v>-31400</v>
       </c>
       <c r="J102" s="3">
+        <v>-703000</v>
+      </c>
+      <c r="K102" s="3">
         <v>591100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
